--- a/Code/Results/Cases/Case_7_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_32/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002079344576965</v>
+        <v>1.002079344576963</v>
       </c>
       <c r="D2">
-        <v>1.023487744805768</v>
+        <v>1.023487744805766</v>
       </c>
       <c r="E2">
-        <v>1.005774352777174</v>
+        <v>1.005774352777172</v>
       </c>
       <c r="F2">
-        <v>1.023324650067116</v>
+        <v>1.023324650067115</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048437119119077</v>
+        <v>1.048437119119076</v>
       </c>
       <c r="J2">
-        <v>1.024198040180058</v>
+        <v>1.024198040180055</v>
       </c>
       <c r="K2">
-        <v>1.034629275786206</v>
+        <v>1.034629275786205</v>
       </c>
       <c r="L2">
-        <v>1.01715382362804</v>
+        <v>1.017153823628038</v>
       </c>
       <c r="M2">
-        <v>1.034468324750673</v>
+        <v>1.034468324750671</v>
       </c>
       <c r="N2">
-        <v>1.02565251887427</v>
+        <v>1.025652518874268</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01194675514442</v>
+        <v>1.011946755144417</v>
       </c>
       <c r="D3">
-        <v>1.031420888328812</v>
+        <v>1.03142088832881</v>
       </c>
       <c r="E3">
-        <v>1.014337820477802</v>
+        <v>1.0143378204778</v>
       </c>
       <c r="F3">
-        <v>1.032261862865365</v>
+        <v>1.032261862865362</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051973601172071</v>
+        <v>1.05197360117207</v>
       </c>
       <c r="J3">
-        <v>1.032116954300054</v>
+        <v>1.032116954300051</v>
       </c>
       <c r="K3">
-        <v>1.041666918385619</v>
+        <v>1.041666918385616</v>
       </c>
       <c r="L3">
-        <v>1.024790475103297</v>
+        <v>1.024790475103295</v>
       </c>
       <c r="M3">
-        <v>1.042497939916576</v>
+        <v>1.042497939916574</v>
       </c>
       <c r="N3">
-        <v>1.033582678760629</v>
+        <v>1.033582678760627</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018083899886469</v>
+        <v>1.018083899886467</v>
       </c>
       <c r="D4">
-        <v>1.036358112575608</v>
+        <v>1.036358112575607</v>
       </c>
       <c r="E4">
-        <v>1.019664713377508</v>
+        <v>1.019664713377507</v>
       </c>
       <c r="F4">
-        <v>1.03782863965434</v>
+        <v>1.037828639654338</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054156474088036</v>
+        <v>1.054156474088035</v>
       </c>
       <c r="J4">
-        <v>1.037036063120261</v>
+        <v>1.03703606312026</v>
       </c>
       <c r="K4">
-        <v>1.046036670271374</v>
+        <v>1.046036670271373</v>
       </c>
       <c r="L4">
-        <v>1.029531457375757</v>
+        <v>1.029531457375756</v>
       </c>
       <c r="M4">
-        <v>1.047490976566808</v>
+        <v>1.047490976566806</v>
       </c>
       <c r="N4">
-        <v>1.038508773279591</v>
+        <v>1.038508773279589</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,7 +544,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020608996509219</v>
+        <v>1.02060899650922</v>
       </c>
       <c r="D5">
         <v>1.03839008634024</v>
@@ -553,7 +553,7 @@
         <v>1.021856506443075</v>
       </c>
       <c r="F5">
-        <v>1.040120863604422</v>
+        <v>1.040120863604423</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>1.055050515400015</v>
       </c>
       <c r="J5">
-        <v>1.039058444250423</v>
+        <v>1.039058444250424</v>
       </c>
       <c r="K5">
         <v>1.047832691268807</v>
@@ -571,10 +571,10 @@
         <v>1.031479937766888</v>
       </c>
       <c r="M5">
-        <v>1.049544946337691</v>
+        <v>1.049544946337692</v>
       </c>
       <c r="N5">
-        <v>1.040534026422928</v>
+        <v>1.040534026422929</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -600,10 +600,10 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055199286143079</v>
+        <v>1.05519928614308</v>
       </c>
       <c r="J6">
-        <v>1.039395429384501</v>
+        <v>1.039395429384502</v>
       </c>
       <c r="K6">
         <v>1.048131927627445</v>
@@ -612,10 +612,10 @@
         <v>1.031804569709511</v>
       </c>
       <c r="M6">
-        <v>1.049887264148129</v>
+        <v>1.04988726414813</v>
       </c>
       <c r="N6">
-        <v>1.040871490114549</v>
+        <v>1.04087149011455</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,10 +626,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01811785092777</v>
+        <v>1.018117850927769</v>
       </c>
       <c r="D7">
-        <v>1.036385431281934</v>
+        <v>1.036385431281933</v>
       </c>
       <c r="E7">
         <v>1.019694182862199</v>
@@ -667,16 +667,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005468160752364</v>
+        <v>1.005468160752363</v>
       </c>
       <c r="D8">
         <v>1.026211492235254</v>
       </c>
       <c r="E8">
-        <v>1.008715117808989</v>
+        <v>1.008715117808988</v>
       </c>
       <c r="F8">
-        <v>1.026392161378265</v>
+        <v>1.026392161378264</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -685,19 +685,19 @@
         <v>1.049655158135487</v>
       </c>
       <c r="J8">
-        <v>1.026918923692835</v>
+        <v>1.026918923692834</v>
       </c>
       <c r="K8">
-        <v>1.037047742176927</v>
+        <v>1.037047742176926</v>
       </c>
       <c r="L8">
-        <v>1.019778317317032</v>
+        <v>1.019778317317031</v>
       </c>
       <c r="M8">
-        <v>1.037226118222039</v>
+        <v>1.037226118222038</v>
       </c>
       <c r="N8">
-        <v>1.028377266353726</v>
+        <v>1.028377266353725</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9810532848642654</v>
+        <v>0.981053284864266</v>
       </c>
       <c r="D9">
-        <v>1.006610247149878</v>
+        <v>1.006610247149879</v>
       </c>
       <c r="E9">
-        <v>0.9875370354732456</v>
+        <v>0.9875370354732462</v>
       </c>
       <c r="F9">
-        <v>1.004336156577336</v>
+        <v>1.004336156577337</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>1.007293310224955</v>
       </c>
       <c r="K9">
-        <v>1.019596980428661</v>
+        <v>1.019596980428662</v>
       </c>
       <c r="L9">
-        <v>1.000835604625373</v>
+        <v>1.000835604625374</v>
       </c>
       <c r="M9">
         <v>1.017359272242206</v>
       </c>
       <c r="N9">
-        <v>1.008723782263632</v>
+        <v>1.008723782263633</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9629668281671343</v>
+        <v>0.962966828167136</v>
       </c>
       <c r="D10">
-        <v>0.9921298281801267</v>
+        <v>0.9921298281801283</v>
       </c>
       <c r="E10">
-        <v>0.9718674723783709</v>
+        <v>0.9718674723783723</v>
       </c>
       <c r="F10">
-        <v>0.9880651514361639</v>
+        <v>0.9880651514361656</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034173730944448</v>
+        <v>1.034173730944449</v>
       </c>
       <c r="J10">
-        <v>0.9927309056446622</v>
+        <v>0.9927309056446635</v>
       </c>
       <c r="K10">
-        <v>1.006642649954155</v>
+        <v>1.006642649954156</v>
       </c>
       <c r="L10">
-        <v>0.9867639503966578</v>
+        <v>0.9867639503966593</v>
       </c>
       <c r="M10">
-        <v>1.002653289461815</v>
+        <v>1.002653289461817</v>
       </c>
       <c r="N10">
-        <v>0.994140697398504</v>
+        <v>0.9941406973985055</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,16 +790,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9545960122500492</v>
+        <v>0.954596012250049</v>
       </c>
       <c r="D11">
-        <v>0.9854419796050692</v>
+        <v>0.9854419796050695</v>
       </c>
       <c r="E11">
-        <v>0.9646228443686208</v>
+        <v>0.9646228443686206</v>
       </c>
       <c r="F11">
-        <v>0.9805550535332865</v>
+        <v>0.9805550535332869</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -808,19 +808,19 @@
         <v>1.031084177696443</v>
       </c>
       <c r="J11">
-        <v>0.9859877203843357</v>
+        <v>0.9859877203843359</v>
       </c>
       <c r="K11">
-        <v>1.000643762003324</v>
+        <v>1.000643762003325</v>
       </c>
       <c r="L11">
-        <v>0.9802442502515643</v>
+        <v>0.9802442502515639</v>
       </c>
       <c r="M11">
-        <v>0.9958532318893254</v>
+        <v>0.9958532318893257</v>
       </c>
       <c r="N11">
-        <v>0.9873879360416538</v>
+        <v>0.9873879360416536</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9513938635322811</v>
+        <v>0.9513938635322822</v>
       </c>
       <c r="D12">
-        <v>0.9828861987378457</v>
+        <v>0.9828861987378463</v>
       </c>
       <c r="E12">
-        <v>0.9618529700856465</v>
+        <v>0.9618529700856477</v>
       </c>
       <c r="F12">
-        <v>0.9776856880836995</v>
+        <v>0.9776856880837002</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02989982707515</v>
+        <v>1.029899827075151</v>
       </c>
       <c r="J12">
-        <v>0.9834079365222542</v>
+        <v>0.9834079365222552</v>
       </c>
       <c r="K12">
-        <v>0.9983487846024671</v>
+        <v>0.9983487846024678</v>
       </c>
       <c r="L12">
-        <v>0.9777494100286823</v>
+        <v>0.9777494100286834</v>
       </c>
       <c r="M12">
-        <v>0.9932532562059981</v>
+        <v>0.9932532562059988</v>
       </c>
       <c r="N12">
-        <v>0.9848044885905827</v>
+        <v>0.9848044885905837</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.952085155356981</v>
+        <v>0.9520851553569799</v>
       </c>
       <c r="D13">
-        <v>0.9834378260898305</v>
+        <v>0.9834378260898292</v>
       </c>
       <c r="E13">
-        <v>0.962450868955795</v>
+        <v>0.9624508689557936</v>
       </c>
       <c r="F13">
-        <v>0.9783049704376486</v>
+        <v>0.9783049704376471</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030155616941366</v>
+        <v>1.030155616941365</v>
       </c>
       <c r="J13">
-        <v>0.9839648773919487</v>
+        <v>0.9839648773919476</v>
       </c>
       <c r="K13">
-        <v>0.9988442351675259</v>
+        <v>0.9988442351675246</v>
       </c>
       <c r="L13">
-        <v>0.9782880375899945</v>
+        <v>0.9782880375899932</v>
       </c>
       <c r="M13">
-        <v>0.9938144834690339</v>
+        <v>0.9938144834690325</v>
       </c>
       <c r="N13">
-        <v>0.9853622203801942</v>
+        <v>0.9853622203801931</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9543332934612075</v>
+        <v>0.9543332934612052</v>
       </c>
       <c r="D14">
-        <v>0.9852322368661898</v>
+        <v>0.9852322368661878</v>
       </c>
       <c r="E14">
-        <v>0.9643955596294891</v>
+        <v>0.9643955596294872</v>
       </c>
       <c r="F14">
-        <v>0.9803195636707198</v>
+        <v>0.9803195636707178</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030987056935539</v>
+        <v>1.030987056935537</v>
       </c>
       <c r="J14">
-        <v>0.9857760670053096</v>
+        <v>0.9857760670053073</v>
       </c>
       <c r="K14">
-        <v>1.000455473225027</v>
+        <v>1.000455473225025</v>
       </c>
       <c r="L14">
-        <v>0.980039577088644</v>
+        <v>0.980039577088642</v>
       </c>
       <c r="M14">
-        <v>0.9956398894916133</v>
+        <v>0.9956398894916111</v>
       </c>
       <c r="N14">
-        <v>0.9871759820905524</v>
+        <v>0.9871759820905501</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9557057439585273</v>
+        <v>0.955705743958526</v>
       </c>
       <c r="D15">
-        <v>0.9863280459162008</v>
+        <v>0.9863280459162</v>
       </c>
       <c r="E15">
-        <v>0.9655829630201423</v>
+        <v>0.9655829630201409</v>
       </c>
       <c r="F15">
-        <v>0.9815499150281674</v>
+        <v>0.9815499150281665</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -972,19 +972,19 @@
         <v>1.031494319589727</v>
       </c>
       <c r="J15">
-        <v>0.9868817411998401</v>
+        <v>0.9868817411998385</v>
       </c>
       <c r="K15">
-        <v>1.001439094010723</v>
+        <v>1.001439094010722</v>
       </c>
       <c r="L15">
-        <v>0.9811087642812274</v>
+        <v>0.9811087642812261</v>
       </c>
       <c r="M15">
-        <v>0.9967544512382038</v>
+        <v>0.9967544512382028</v>
       </c>
       <c r="N15">
-        <v>0.9882832264692618</v>
+        <v>0.9882832264692599</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,16 +995,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.963510055472459</v>
+        <v>0.9635100554724586</v>
       </c>
       <c r="D16">
-        <v>0.9925641626646245</v>
+        <v>0.9925641626646242</v>
       </c>
       <c r="E16">
-        <v>0.9723377965286852</v>
+        <v>0.9723377965286846</v>
       </c>
       <c r="F16">
-        <v>0.9885529774713779</v>
+        <v>0.9885529774713772</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1013,19 +1013,19 @@
         <v>1.034373877582514</v>
       </c>
       <c r="J16">
-        <v>0.9931684571638594</v>
+        <v>0.9931684571638589</v>
       </c>
       <c r="K16">
         <v>1.007031907168567</v>
       </c>
       <c r="L16">
-        <v>0.9871869239818475</v>
+        <v>0.9871869239818472</v>
       </c>
       <c r="M16">
-        <v>1.003094737956123</v>
+        <v>1.003094737956122</v>
       </c>
       <c r="N16">
-        <v>0.9945788702910465</v>
+        <v>0.9945788702910461</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9682535091862146</v>
+        <v>0.9682535091862154</v>
       </c>
       <c r="D17">
-        <v>0.9963583734153517</v>
+        <v>0.9963583734153529</v>
       </c>
       <c r="E17">
-        <v>0.9764455388853652</v>
+        <v>0.9764455388853658</v>
       </c>
       <c r="F17">
-        <v>0.9928149954060594</v>
+        <v>0.9928149954060607</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036119573368333</v>
+        <v>1.036119573368334</v>
       </c>
       <c r="J17">
-        <v>0.9969887985009659</v>
+        <v>0.9969887985009669</v>
       </c>
       <c r="K17">
-        <v>1.010430556244631</v>
+        <v>1.010430556244632</v>
       </c>
       <c r="L17">
-        <v>0.9908795643967319</v>
+        <v>0.9908795643967323</v>
       </c>
       <c r="M17">
-        <v>1.00695018762741</v>
+        <v>1.006950187627411</v>
       </c>
       <c r="N17">
-        <v>0.9984046369510509</v>
+        <v>0.9984046369510516</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9709691711815831</v>
+        <v>0.9709691711815833</v>
       </c>
       <c r="D18">
-        <v>0.998531851843575</v>
+        <v>0.9985318518435751</v>
       </c>
       <c r="E18">
-        <v>0.97879793173477</v>
+        <v>0.9787979317347701</v>
       </c>
       <c r="F18">
-        <v>0.9952568978163379</v>
+        <v>0.995256897816338</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,13 +1095,13 @@
         <v>1.037117314990245</v>
       </c>
       <c r="J18">
-        <v>0.9991756412092817</v>
+        <v>0.9991756412092818</v>
       </c>
       <c r="K18">
-        <v>1.01237597565003</v>
+        <v>1.012375975650031</v>
       </c>
       <c r="L18">
-        <v>0.9929929595238645</v>
+        <v>0.9929929595238643</v>
       </c>
       <c r="M18">
         <v>1.009158008740506</v>
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9718867922255902</v>
+        <v>0.9718867922255923</v>
       </c>
       <c r="D19">
-        <v>0.9992664716361133</v>
+        <v>0.999266471636115</v>
       </c>
       <c r="E19">
-        <v>0.979592911221698</v>
+        <v>0.9795929112217003</v>
       </c>
       <c r="F19">
-        <v>0.996082320347329</v>
+        <v>0.9960823203473312</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037454160326329</v>
+        <v>1.03745416032633</v>
       </c>
       <c r="J19">
-        <v>0.9999145119875302</v>
+        <v>0.9999145119875322</v>
       </c>
       <c r="K19">
-        <v>1.01303326727208</v>
+        <v>1.013033267272081</v>
       </c>
       <c r="L19">
-        <v>0.9937069551310255</v>
+        <v>0.9937069551310277</v>
       </c>
       <c r="M19">
-        <v>1.009904113854366</v>
+        <v>1.009904113854368</v>
       </c>
       <c r="N19">
-        <v>1.00133450528635</v>
+        <v>1.001334505286352</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9677499461707763</v>
+        <v>0.9677499461707755</v>
       </c>
       <c r="D20">
-        <v>0.9959554468611911</v>
+        <v>0.9959554468611901</v>
       </c>
       <c r="E20">
-        <v>0.976009389781451</v>
+        <v>0.97600938978145</v>
       </c>
       <c r="F20">
-        <v>0.992362344146381</v>
+        <v>0.9923623441463799</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035934424857254</v>
+        <v>1.035934424857253</v>
       </c>
       <c r="J20">
-        <v>0.996583265597865</v>
+        <v>0.9965832655978641</v>
       </c>
       <c r="K20">
-        <v>1.010069789648606</v>
+        <v>1.010069789648605</v>
       </c>
       <c r="L20">
-        <v>0.9904876233766163</v>
+        <v>0.9904876233766151</v>
       </c>
       <c r="M20">
-        <v>1.006540835302057</v>
+        <v>1.006540835302055</v>
       </c>
       <c r="N20">
-        <v>0.9979985281447122</v>
+        <v>0.9979985281447112</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9536739439853386</v>
+        <v>0.9536739439853379</v>
       </c>
       <c r="D21">
-        <v>0.9847058851583017</v>
+        <v>0.984705885158301</v>
       </c>
       <c r="E21">
-        <v>0.9638251642640103</v>
+        <v>0.9638251642640099</v>
       </c>
       <c r="F21">
-        <v>0.9797286092785754</v>
+        <v>0.9797286092785744</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,19 +1218,19 @@
         <v>1.030743272465441</v>
       </c>
       <c r="J21">
-        <v>0.9852448738631024</v>
+        <v>0.9852448738631018</v>
       </c>
       <c r="K21">
-        <v>0.9999829202404764</v>
+        <v>0.9999829202404757</v>
       </c>
       <c r="L21">
-        <v>0.9795258935277242</v>
+        <v>0.9795258935277237</v>
       </c>
       <c r="M21">
-        <v>0.9951044829317877</v>
+        <v>0.9951044829317869</v>
       </c>
       <c r="N21">
-        <v>0.9866440345931543</v>
+        <v>0.986644034593154</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9442786736669424</v>
+        <v>0.9442786736669425</v>
       </c>
       <c r="D22">
-        <v>0.9772126062502179</v>
+        <v>0.9772126062502182</v>
       </c>
       <c r="E22">
-        <v>0.9557014374407451</v>
+        <v>0.9557014374407452</v>
       </c>
       <c r="F22">
-        <v>0.9713170627546913</v>
+        <v>0.971317062754691</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,19 +1259,19 @@
         <v>1.02726387706983</v>
       </c>
       <c r="J22">
-        <v>0.9776754711637801</v>
+        <v>0.9776754711637803</v>
       </c>
       <c r="K22">
-        <v>0.9932494174343443</v>
+        <v>0.9932494174343445</v>
       </c>
       <c r="L22">
-        <v>0.9722046774865652</v>
+        <v>0.9722046774865654</v>
       </c>
       <c r="M22">
         <v>0.9874789838318733</v>
       </c>
       <c r="N22">
-        <v>0.9790638824737767</v>
+        <v>0.9790638824737768</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9493156224693916</v>
+        <v>0.9493156224693952</v>
       </c>
       <c r="D23">
-        <v>0.9812282508668249</v>
+        <v>0.9812282508668277</v>
       </c>
       <c r="E23">
-        <v>0.9600557414704405</v>
+        <v>0.9600557414704441</v>
       </c>
       <c r="F23">
-        <v>0.9758244868485717</v>
+        <v>0.9758244868485751</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029130497621662</v>
+        <v>1.029130497621664</v>
       </c>
       <c r="J23">
-        <v>0.9817335796013396</v>
+        <v>0.9817335796013429</v>
       </c>
       <c r="K23">
-        <v>0.9968593061615763</v>
+        <v>0.9968593061615795</v>
       </c>
       <c r="L23">
-        <v>0.976130028564551</v>
+        <v>0.9761300285645543</v>
       </c>
       <c r="M23">
-        <v>0.9915662532596848</v>
+        <v>0.9915662532596883</v>
       </c>
       <c r="N23">
-        <v>0.9831277538907892</v>
+        <v>0.9831277538907924</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,16 +1323,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9679776417100441</v>
+        <v>0.9679776417100446</v>
       </c>
       <c r="D24">
-        <v>0.9961376338151374</v>
+        <v>0.9961376338151379</v>
       </c>
       <c r="E24">
-        <v>0.9762066007504062</v>
+        <v>0.9762066007504067</v>
       </c>
       <c r="F24">
-        <v>0.9925670131933819</v>
+        <v>0.9925670131933824</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1341,19 +1341,19 @@
         <v>1.036018148511785</v>
       </c>
       <c r="J24">
-        <v>0.9967666360154732</v>
+        <v>0.9967666360154738</v>
       </c>
       <c r="K24">
-        <v>1.010232918143965</v>
+        <v>1.010232918143966</v>
       </c>
       <c r="L24">
-        <v>0.9906648490195377</v>
+        <v>0.990664849019538</v>
       </c>
       <c r="M24">
         <v>1.006725930016183</v>
       </c>
       <c r="N24">
-        <v>0.9981821589693463</v>
+        <v>0.9981821589693469</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,13 +1364,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9876521982791735</v>
+        <v>0.9876521982791742</v>
       </c>
       <c r="D25">
         <v>1.011902645144139</v>
       </c>
       <c r="E25">
-        <v>0.9932587411503212</v>
+        <v>0.9932587411503215</v>
       </c>
       <c r="F25">
         <v>1.010287318275971</v>
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043215642759253</v>
+        <v>1.043215642759254</v>
       </c>
       <c r="J25">
         <v>1.012602382587203</v>

--- a/Code/Results/Cases/Case_7_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002079344576963</v>
+        <v>0.9998044804562897</v>
       </c>
       <c r="D2">
-        <v>1.023487744805766</v>
+        <v>1.021954541921122</v>
       </c>
       <c r="E2">
-        <v>1.005774352777172</v>
+        <v>1.006156015416437</v>
       </c>
       <c r="F2">
-        <v>1.023324650067115</v>
+        <v>1.027177721107028</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048437119119076</v>
+        <v>1.047658757842204</v>
       </c>
       <c r="J2">
-        <v>1.024198040180055</v>
+        <v>1.021991041051311</v>
       </c>
       <c r="K2">
-        <v>1.034629275786205</v>
+        <v>1.033116259069043</v>
       </c>
       <c r="L2">
-        <v>1.017153823628038</v>
+        <v>1.017530248251243</v>
       </c>
       <c r="M2">
-        <v>1.034468324750671</v>
+        <v>1.038270979205046</v>
       </c>
       <c r="N2">
-        <v>1.025652518874268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010908465198515</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.03886130150179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011946755144417</v>
+        <v>1.004787380826906</v>
       </c>
       <c r="D3">
-        <v>1.03142088832881</v>
+        <v>1.025515542912223</v>
       </c>
       <c r="E3">
-        <v>1.0143378204778</v>
+        <v>1.010176057567391</v>
       </c>
       <c r="F3">
-        <v>1.032261862865362</v>
+        <v>1.030677203125517</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05197360117207</v>
+        <v>1.048972194804909</v>
       </c>
       <c r="J3">
-        <v>1.032116954300051</v>
+        <v>1.025148382392123</v>
       </c>
       <c r="K3">
-        <v>1.041666918385616</v>
+        <v>1.035832033670445</v>
       </c>
       <c r="L3">
-        <v>1.024790475103295</v>
+        <v>1.020680368738002</v>
       </c>
       <c r="M3">
-        <v>1.042497939916574</v>
+        <v>1.040932051528468</v>
       </c>
       <c r="N3">
-        <v>1.033582678760627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011996970191754</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04096736354105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018083899886467</v>
+        <v>1.007939970236445</v>
       </c>
       <c r="D4">
-        <v>1.036358112575607</v>
+        <v>1.027769511487996</v>
       </c>
       <c r="E4">
-        <v>1.019664713377507</v>
+        <v>1.012725405038932</v>
       </c>
       <c r="F4">
-        <v>1.037828639654338</v>
+        <v>1.032897979532651</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054156474088035</v>
+        <v>1.049788066157969</v>
       </c>
       <c r="J4">
-        <v>1.03703606312026</v>
+        <v>1.027142728613236</v>
       </c>
       <c r="K4">
-        <v>1.046036670271373</v>
+        <v>1.037543948629661</v>
       </c>
       <c r="L4">
-        <v>1.029531457375756</v>
+        <v>1.022672633924836</v>
       </c>
       <c r="M4">
-        <v>1.047490976566806</v>
+        <v>1.042614928684594</v>
       </c>
       <c r="N4">
-        <v>1.038508773279589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012683946679307</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04229924588719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02060899650922</v>
+        <v>1.009248805074072</v>
       </c>
       <c r="D5">
-        <v>1.03839008634024</v>
+        <v>1.028705435879556</v>
       </c>
       <c r="E5">
-        <v>1.021856506443075</v>
+        <v>1.013785169666455</v>
       </c>
       <c r="F5">
-        <v>1.040120863604423</v>
+        <v>1.033821501079171</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055050515400015</v>
+        <v>1.050123094014156</v>
       </c>
       <c r="J5">
-        <v>1.039058444250424</v>
+        <v>1.027969879573882</v>
       </c>
       <c r="K5">
-        <v>1.047832691268807</v>
+        <v>1.038253094880696</v>
       </c>
       <c r="L5">
-        <v>1.031479937766888</v>
+        <v>1.023499517466836</v>
       </c>
       <c r="M5">
-        <v>1.049544946337692</v>
+        <v>1.043313362829209</v>
       </c>
       <c r="N5">
-        <v>1.040534026422929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012968722748897</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042852008098293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021029865674561</v>
+        <v>1.009467613971123</v>
       </c>
       <c r="D6">
-        <v>1.038728793894424</v>
+        <v>1.028861909651654</v>
       </c>
       <c r="E6">
-        <v>1.022221823588309</v>
+        <v>1.01396241863458</v>
       </c>
       <c r="F6">
-        <v>1.040503020527184</v>
+        <v>1.033975982416113</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05519928614308</v>
+        <v>1.050178884603624</v>
       </c>
       <c r="J6">
-        <v>1.039395429384502</v>
+        <v>1.028108111471737</v>
       </c>
       <c r="K6">
-        <v>1.048131927627445</v>
+        <v>1.038371554391952</v>
       </c>
       <c r="L6">
-        <v>1.031804569709511</v>
+        <v>1.023637739726131</v>
       </c>
       <c r="M6">
-        <v>1.04988726414813</v>
+        <v>1.043430110675547</v>
       </c>
       <c r="N6">
-        <v>1.04087149011455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.0130163052145</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042944405884871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018117850927769</v>
+        <v>1.007957523009002</v>
       </c>
       <c r="D7">
-        <v>1.036385431281933</v>
+        <v>1.027782062615595</v>
       </c>
       <c r="E7">
-        <v>1.019694182862199</v>
+        <v>1.012739612175395</v>
       </c>
       <c r="F7">
-        <v>1.037859452672915</v>
+        <v>1.032910358879332</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05416851120142</v>
+        <v>1.049792573882927</v>
       </c>
       <c r="J7">
-        <v>1.037063261226585</v>
+        <v>1.027153824850499</v>
       </c>
       <c r="K7">
-        <v>1.046060826215484</v>
+        <v>1.037553465291483</v>
       </c>
       <c r="L7">
-        <v>1.029557664271693</v>
+        <v>1.02268372421845</v>
       </c>
       <c r="M7">
-        <v>1.047518594809564</v>
+        <v>1.042624296369136</v>
       </c>
       <c r="N7">
-        <v>1.038536010010345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012687767538401</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042306659762937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005468160752363</v>
+        <v>1.00150371770656</v>
       </c>
       <c r="D8">
-        <v>1.026211492235254</v>
+        <v>1.023168637881488</v>
       </c>
       <c r="E8">
-        <v>1.008715117808988</v>
+        <v>1.00752562449153</v>
       </c>
       <c r="F8">
-        <v>1.026392161378264</v>
+        <v>1.028369636591535</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049655158135487</v>
+        <v>1.048109792263419</v>
       </c>
       <c r="J8">
-        <v>1.026918923692834</v>
+        <v>1.023068390051698</v>
       </c>
       <c r="K8">
-        <v>1.037047742176926</v>
+        <v>1.034043660536844</v>
       </c>
       <c r="L8">
-        <v>1.019778317317031</v>
+        <v>1.018604612300525</v>
       </c>
       <c r="M8">
-        <v>1.037226118222038</v>
+        <v>1.039178560558327</v>
       </c>
       <c r="N8">
-        <v>1.028377266353725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011280003503819</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039579592569474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.981053284864266</v>
+        <v>0.9895513170884713</v>
       </c>
       <c r="D9">
-        <v>1.006610247149879</v>
+        <v>1.014636147776171</v>
       </c>
       <c r="E9">
-        <v>0.9875370354732462</v>
+        <v>0.9979194368262567</v>
       </c>
       <c r="F9">
-        <v>1.004336156577337</v>
+        <v>1.020017495028933</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040810337734103</v>
+        <v>1.044875512239231</v>
       </c>
       <c r="J9">
-        <v>1.007293310224955</v>
+        <v>1.01547851846745</v>
       </c>
       <c r="K9">
-        <v>1.019596980428662</v>
+        <v>1.027496144385091</v>
       </c>
       <c r="L9">
-        <v>1.000835604625374</v>
+        <v>1.011046360149646</v>
       </c>
       <c r="M9">
-        <v>1.017359272242206</v>
+        <v>1.032793941185289</v>
       </c>
       <c r="N9">
-        <v>1.008723782263633</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008660320636307</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034526570067888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.962966828167136</v>
+        <v>0.981238953434266</v>
       </c>
       <c r="D10">
-        <v>0.9921298281801283</v>
+        <v>1.008739451621322</v>
       </c>
       <c r="E10">
-        <v>0.9718674723783723</v>
+        <v>0.9912891772459644</v>
       </c>
       <c r="F10">
-        <v>0.9880651514361656</v>
+        <v>1.014332735211251</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034173730944449</v>
+        <v>1.042571155048716</v>
       </c>
       <c r="J10">
-        <v>0.9927309056446635</v>
+        <v>1.010217219121688</v>
       </c>
       <c r="K10">
-        <v>1.006642649954156</v>
+        <v>1.022952685276196</v>
       </c>
       <c r="L10">
-        <v>0.9867639503966593</v>
+        <v>1.005817509789607</v>
       </c>
       <c r="M10">
-        <v>1.002653289461817</v>
+        <v>1.028447941554107</v>
       </c>
       <c r="N10">
-        <v>0.9941406973985055</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006856698314917</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.031138866109589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.954596012250049</v>
+        <v>0.9782593045530372</v>
       </c>
       <c r="D11">
-        <v>0.9854419796050695</v>
+        <v>1.006820759866757</v>
       </c>
       <c r="E11">
-        <v>0.9646228443686206</v>
+        <v>0.9890285931986792</v>
       </c>
       <c r="F11">
-        <v>0.9805550535332869</v>
+        <v>1.012943405445746</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031084177696443</v>
+        <v>1.041884114052494</v>
       </c>
       <c r="J11">
-        <v>0.9859877203843359</v>
+        <v>1.008565349738587</v>
       </c>
       <c r="K11">
-        <v>1.000643762003325</v>
+        <v>1.021615182865016</v>
       </c>
       <c r="L11">
-        <v>0.9802442502515639</v>
+        <v>1.004160423188292</v>
       </c>
       <c r="M11">
-        <v>0.9958532318893257</v>
+        <v>1.027625287556059</v>
       </c>
       <c r="N11">
-        <v>0.9873879360416536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00641688767656</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.030927866268755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9513938635322822</v>
+        <v>0.9773928567087093</v>
       </c>
       <c r="D12">
-        <v>0.9828861987378463</v>
+        <v>1.006344193135505</v>
       </c>
       <c r="E12">
-        <v>0.9618529700856477</v>
+        <v>0.9884234304591117</v>
       </c>
       <c r="F12">
-        <v>0.9776856880837002</v>
+        <v>1.012821325531432</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029899827075151</v>
+        <v>1.04174662181273</v>
       </c>
       <c r="J12">
-        <v>0.9834079365222552</v>
+        <v>1.008185794665166</v>
       </c>
       <c r="K12">
-        <v>0.9983487846024678</v>
+        <v>1.021350849448853</v>
       </c>
       <c r="L12">
-        <v>0.9777494100286834</v>
+        <v>1.003775831589784</v>
       </c>
       <c r="M12">
-        <v>0.9932532562059988</v>
+        <v>1.027706943621928</v>
       </c>
       <c r="N12">
-        <v>0.9848044885905837</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00638893548885</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.031321389650644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9520851553569799</v>
+        <v>0.9781048890015299</v>
       </c>
       <c r="D13">
-        <v>0.9834378260898292</v>
+        <v>1.006954629011594</v>
       </c>
       <c r="E13">
-        <v>0.9624508689557936</v>
+        <v>0.9890564824544162</v>
       </c>
       <c r="F13">
-        <v>0.9783049704376471</v>
+        <v>1.013684442557564</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030155616941365</v>
+        <v>1.04203300871086</v>
       </c>
       <c r="J13">
-        <v>0.9839648773919476</v>
+        <v>1.008769560349775</v>
       </c>
       <c r="K13">
-        <v>0.9988442351675246</v>
+        <v>1.021906200728959</v>
       </c>
       <c r="L13">
-        <v>0.9782880375899932</v>
+        <v>1.004351639711495</v>
       </c>
       <c r="M13">
-        <v>0.9938144834690325</v>
+        <v>1.028510913876412</v>
       </c>
       <c r="N13">
-        <v>0.9853622203801931</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006678428031922</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.032235556724574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9543332934612052</v>
+        <v>0.9793113438405296</v>
       </c>
       <c r="D14">
-        <v>0.9852322368661878</v>
+        <v>1.007867966850189</v>
       </c>
       <c r="E14">
-        <v>0.9643955596294872</v>
+        <v>0.9900539504611967</v>
       </c>
       <c r="F14">
-        <v>0.9803195636707178</v>
+        <v>1.014728446136458</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030987056935537</v>
+        <v>1.042421979758084</v>
       </c>
       <c r="J14">
-        <v>0.9857760670053073</v>
+        <v>1.009607786851168</v>
       </c>
       <c r="K14">
-        <v>1.000455473225025</v>
+        <v>1.022659790965826</v>
       </c>
       <c r="L14">
-        <v>0.980039577088642</v>
+        <v>1.005183122938861</v>
       </c>
       <c r="M14">
-        <v>0.9956398894916111</v>
+        <v>1.029394461761779</v>
       </c>
       <c r="N14">
-        <v>0.9871759820905501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007021569913195</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.033108228382394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.955705743958526</v>
+        <v>0.9799556043723651</v>
       </c>
       <c r="D15">
-        <v>0.9863280459162</v>
+        <v>1.008335984021781</v>
       </c>
       <c r="E15">
-        <v>0.9655829630201409</v>
+        <v>0.9905733768716193</v>
       </c>
       <c r="F15">
-        <v>0.9815499150281665</v>
+        <v>1.015214436275383</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031494319589727</v>
+        <v>1.042613582013384</v>
       </c>
       <c r="J15">
-        <v>0.9868817411998385</v>
+        <v>1.010030401242865</v>
       </c>
       <c r="K15">
-        <v>1.001439094010722</v>
+        <v>1.023031325870029</v>
       </c>
       <c r="L15">
-        <v>0.9811087642812261</v>
+        <v>1.005602352271247</v>
       </c>
       <c r="M15">
-        <v>0.9967544512382028</v>
+        <v>1.029784656758653</v>
       </c>
       <c r="N15">
-        <v>0.9882832264692599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007177818106684</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.033454347679594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,81 +1091,93 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9635100554724586</v>
+        <v>0.9833547711879631</v>
       </c>
       <c r="D16">
-        <v>0.9925641626646242</v>
+        <v>1.010732651389695</v>
       </c>
       <c r="E16">
-        <v>0.9723377965286846</v>
+        <v>0.9932631880214308</v>
       </c>
       <c r="F16">
-        <v>0.9885529774713772</v>
+        <v>1.017498084640807</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034373877582514</v>
+        <v>1.043560288912975</v>
       </c>
       <c r="J16">
-        <v>0.9931684571638589</v>
+        <v>1.012165768339767</v>
       </c>
       <c r="K16">
-        <v>1.007031907168567</v>
+        <v>1.024874674515129</v>
       </c>
       <c r="L16">
-        <v>0.9871869239818472</v>
+        <v>1.007718113487654</v>
       </c>
       <c r="M16">
-        <v>1.003094737956122</v>
+        <v>1.031522661291379</v>
       </c>
       <c r="N16">
-        <v>0.9945788702910461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007890811633129</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.034789168161809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9682535091862154</v>
+        <v>0.9853293059680986</v>
       </c>
       <c r="D17">
-        <v>0.9963583734153529</v>
+        <v>1.012091789339382</v>
       </c>
       <c r="E17">
-        <v>0.9764455388853658</v>
+        <v>0.9948055063724938</v>
       </c>
       <c r="F17">
-        <v>0.9928149954060607</v>
+        <v>1.018697158686952</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036119573368334</v>
+        <v>1.044078483025228</v>
       </c>
       <c r="J17">
-        <v>0.9969887985009669</v>
+        <v>1.013363169940024</v>
       </c>
       <c r="K17">
-        <v>1.010430556244632</v>
+        <v>1.025891076115126</v>
       </c>
       <c r="L17">
-        <v>0.9908795643967323</v>
+        <v>1.008905231039537</v>
       </c>
       <c r="M17">
-        <v>1.006950187627411</v>
+        <v>1.032385112993322</v>
       </c>
       <c r="N17">
-        <v>0.9984046369510516</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008257562476806</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035341266113342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9709691711815833</v>
+        <v>0.9862479755978438</v>
       </c>
       <c r="D18">
-        <v>0.9985318518435751</v>
+        <v>1.012660103093058</v>
       </c>
       <c r="E18">
-        <v>0.9787979317347701</v>
+        <v>0.9954848732973385</v>
       </c>
       <c r="F18">
-        <v>0.995256897816338</v>
+        <v>1.019021859146809</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037117314990245</v>
+        <v>1.044266143141484</v>
       </c>
       <c r="J18">
-        <v>0.9991756412092818</v>
+        <v>1.013840777582329</v>
       </c>
       <c r="K18">
-        <v>1.012375975650031</v>
+        <v>1.026263827238658</v>
       </c>
       <c r="L18">
-        <v>0.9929929595238643</v>
+        <v>1.009382001519536</v>
       </c>
       <c r="M18">
-        <v>1.009158008740506</v>
+        <v>1.032520134358325</v>
       </c>
       <c r="N18">
-        <v>1.000594585226847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008348619221017</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.035209143861118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9718867922255923</v>
+        <v>0.9861864145937758</v>
       </c>
       <c r="D19">
-        <v>0.999266471636115</v>
+        <v>1.01248809076638</v>
       </c>
       <c r="E19">
-        <v>0.9795929112217003</v>
+        <v>0.9953615647638913</v>
       </c>
       <c r="F19">
-        <v>0.9960823203473312</v>
+        <v>1.018527636553515</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03745416032633</v>
+        <v>1.044144793278387</v>
       </c>
       <c r="J19">
-        <v>0.9999145119875322</v>
+        <v>1.013643889404092</v>
       </c>
       <c r="K19">
-        <v>1.013033267272081</v>
+        <v>1.026031283324387</v>
       </c>
       <c r="L19">
-        <v>0.9937069551310277</v>
+        <v>1.00919587065113</v>
       </c>
       <c r="M19">
-        <v>1.009904113854368</v>
+        <v>1.031971172072424</v>
       </c>
       <c r="N19">
-        <v>1.001334505286352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008186095268805</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034447694506451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9677499461707755</v>
+        <v>0.9834030825880317</v>
       </c>
       <c r="D20">
-        <v>0.9959554468611901</v>
+        <v>1.010274590736292</v>
       </c>
       <c r="E20">
-        <v>0.97600938978145</v>
+        <v>0.9930129491776424</v>
       </c>
       <c r="F20">
-        <v>0.9923623441463799</v>
+        <v>1.015813382425989</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035934424857253</v>
+        <v>1.043177288387255</v>
       </c>
       <c r="J20">
-        <v>0.9965832655978641</v>
+        <v>1.011589127199301</v>
       </c>
       <c r="K20">
-        <v>1.010069789648605</v>
+        <v>1.024139148194016</v>
       </c>
       <c r="L20">
-        <v>0.9904876233766151</v>
+        <v>1.00717978024942</v>
       </c>
       <c r="M20">
-        <v>1.006540835302055</v>
+        <v>1.029583757204188</v>
       </c>
       <c r="N20">
-        <v>0.9979985281447112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.00732775972352</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032027109704909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9536739439853379</v>
+        <v>0.9769841289175709</v>
       </c>
       <c r="D21">
-        <v>0.984705885158301</v>
+        <v>1.005689673435855</v>
       </c>
       <c r="E21">
-        <v>0.9638251642640099</v>
+        <v>0.987887243139965</v>
       </c>
       <c r="F21">
-        <v>0.9797286092785744</v>
+        <v>1.011315302234458</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030743272465441</v>
+        <v>1.0413425176381</v>
       </c>
       <c r="J21">
-        <v>0.9852448738631018</v>
+        <v>1.007476679227042</v>
       </c>
       <c r="K21">
-        <v>0.9999829202404757</v>
+        <v>1.020564049052661</v>
       </c>
       <c r="L21">
-        <v>0.9795258935277237</v>
+        <v>1.003101787438867</v>
       </c>
       <c r="M21">
-        <v>0.9951044829317869</v>
+        <v>1.026085427609311</v>
       </c>
       <c r="N21">
-        <v>0.986644034593154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005894116751388</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.029217166764587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9442786736669425</v>
+        <v>0.9728870596066993</v>
       </c>
       <c r="D22">
-        <v>0.9772126062502182</v>
+        <v>1.002780074871836</v>
       </c>
       <c r="E22">
-        <v>0.9557014374407452</v>
+        <v>0.9846314599811048</v>
       </c>
       <c r="F22">
-        <v>0.971317062754691</v>
+        <v>1.008495909046016</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02726387706983</v>
+        <v>1.040166853993635</v>
       </c>
       <c r="J22">
-        <v>0.9776754711637803</v>
+        <v>1.004865178680356</v>
       </c>
       <c r="K22">
-        <v>0.9932494174343445</v>
+        <v>1.01829665838387</v>
       </c>
       <c r="L22">
-        <v>0.9722046774865654</v>
+        <v>1.000513644790562</v>
       </c>
       <c r="M22">
-        <v>0.9874789838318733</v>
+        <v>1.023900918467663</v>
       </c>
       <c r="N22">
-        <v>0.9790638824737768</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.004990669170629</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.027488244450512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9493156224693952</v>
+        <v>0.9750694825294824</v>
       </c>
       <c r="D23">
-        <v>0.9812282508668277</v>
+        <v>1.004329480437758</v>
       </c>
       <c r="E23">
-        <v>0.9600557414704441</v>
+        <v>0.9863648431329239</v>
       </c>
       <c r="F23">
-        <v>0.9758244868485751</v>
+        <v>1.009996658286734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029130497621664</v>
+        <v>1.040794419041712</v>
       </c>
       <c r="J23">
-        <v>0.9817335796013429</v>
+        <v>1.006256387072126</v>
       </c>
       <c r="K23">
-        <v>0.9968593061615795</v>
+        <v>1.019504819258435</v>
       </c>
       <c r="L23">
-        <v>0.9761300285645543</v>
+        <v>1.001892140680245</v>
       </c>
       <c r="M23">
-        <v>0.9915662532596883</v>
+        <v>1.02506436104859</v>
       </c>
       <c r="N23">
-        <v>0.9831277538907924</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005471989752237</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.02840904765518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9679776417100446</v>
+        <v>0.9834354591437691</v>
       </c>
       <c r="D24">
-        <v>0.9961376338151379</v>
+        <v>1.010278544534466</v>
       </c>
       <c r="E24">
-        <v>0.9762066007504067</v>
+        <v>0.9930286269503462</v>
       </c>
       <c r="F24">
-        <v>0.9925670131933824</v>
+        <v>1.015772371380563</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036018148511785</v>
+        <v>1.043171011528067</v>
       </c>
       <c r="J24">
-        <v>0.9967666360154738</v>
+        <v>1.011586403041229</v>
       </c>
       <c r="K24">
-        <v>1.010232918143966</v>
+        <v>1.024127530156884</v>
       </c>
       <c r="L24">
-        <v>0.990664849019538</v>
+        <v>1.007179283846863</v>
       </c>
       <c r="M24">
-        <v>1.006725930016183</v>
+        <v>1.029528054524522</v>
       </c>
       <c r="N24">
-        <v>0.9981821589693469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007315271335555</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.031941813339628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9876521982791742</v>
+        <v>0.9927146120855148</v>
       </c>
       <c r="D25">
-        <v>1.011902645144139</v>
+        <v>1.01689246491162</v>
       </c>
       <c r="E25">
-        <v>0.9932587411503215</v>
+        <v>1.000455569300247</v>
       </c>
       <c r="F25">
-        <v>1.010287318275971</v>
+        <v>1.022220762366022</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043215642759254</v>
+        <v>1.045744791817788</v>
       </c>
       <c r="J25">
-        <v>1.012602382587203</v>
+        <v>1.017489670952638</v>
       </c>
       <c r="K25">
-        <v>1.024318955655831</v>
+        <v>1.029234086986259</v>
       </c>
       <c r="L25">
-        <v>1.005962615726126</v>
+        <v>1.013046817256267</v>
       </c>
       <c r="M25">
-        <v>1.022728008623982</v>
+        <v>1.034483651729295</v>
       </c>
       <c r="N25">
-        <v>1.014040394117593</v>
+        <v>1.009354944034663</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.035863872610086</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9998044804562897</v>
+        <v>1.000006751470584</v>
       </c>
       <c r="D2">
-        <v>1.021954541921122</v>
+        <v>1.021730244008529</v>
       </c>
       <c r="E2">
-        <v>1.006156015416437</v>
+        <v>1.006367223060631</v>
       </c>
       <c r="F2">
-        <v>1.027177721107028</v>
+        <v>1.027076310530199</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047658757842204</v>
+        <v>1.047544891753471</v>
       </c>
       <c r="J2">
-        <v>1.021991041051311</v>
+        <v>1.022187260603821</v>
       </c>
       <c r="K2">
-        <v>1.033116259069043</v>
+        <v>1.032894920636203</v>
       </c>
       <c r="L2">
-        <v>1.017530248251243</v>
+        <v>1.017738559389932</v>
       </c>
       <c r="M2">
-        <v>1.038270979205046</v>
+        <v>1.038170889493163</v>
       </c>
       <c r="N2">
-        <v>1.010908465198515</v>
+        <v>1.012878203568422</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03886130150179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038782087020647</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020780461782004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004787380826906</v>
+        <v>1.004616670048493</v>
       </c>
       <c r="D3">
-        <v>1.025515542912223</v>
+        <v>1.024890982827078</v>
       </c>
       <c r="E3">
-        <v>1.010176057567391</v>
+        <v>1.010059038788264</v>
       </c>
       <c r="F3">
-        <v>1.030677203125517</v>
+        <v>1.030273464655471</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048972194804909</v>
+        <v>1.048654791181791</v>
       </c>
       <c r="J3">
-        <v>1.025148382392123</v>
+        <v>1.024982266325542</v>
       </c>
       <c r="K3">
-        <v>1.035832033670445</v>
+        <v>1.035214984558913</v>
       </c>
       <c r="L3">
-        <v>1.020680368738002</v>
+        <v>1.020564810084238</v>
       </c>
       <c r="M3">
-        <v>1.040932051528468</v>
+        <v>1.040533107048418</v>
       </c>
       <c r="N3">
-        <v>1.011996970191754</v>
+        <v>1.013639858072832</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04096736354105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040651625869029</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021299511620788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007939970236445</v>
+        <v>1.007536793466412</v>
       </c>
       <c r="D4">
-        <v>1.027769511487996</v>
+        <v>1.026894028861086</v>
       </c>
       <c r="E4">
-        <v>1.012725405038932</v>
+        <v>1.012403556360512</v>
       </c>
       <c r="F4">
-        <v>1.032897979532651</v>
+        <v>1.032305060459788</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049788066157969</v>
+        <v>1.049342828808628</v>
       </c>
       <c r="J4">
-        <v>1.027142728613236</v>
+        <v>1.026749652603158</v>
       </c>
       <c r="K4">
-        <v>1.037543948629661</v>
+        <v>1.036678350501906</v>
       </c>
       <c r="L4">
-        <v>1.022672633924836</v>
+        <v>1.022354551298012</v>
       </c>
       <c r="M4">
-        <v>1.042614928684594</v>
+        <v>1.042028620050752</v>
       </c>
       <c r="N4">
-        <v>1.012683946679307</v>
+        <v>1.014121232086831</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04229924588719</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041835222920389</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02162413193992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009248805074072</v>
+        <v>1.008749902784443</v>
       </c>
       <c r="D5">
-        <v>1.028705435879556</v>
+        <v>1.027726301914881</v>
       </c>
       <c r="E5">
-        <v>1.013785169666455</v>
+        <v>1.013378924777895</v>
       </c>
       <c r="F5">
-        <v>1.033821501079171</v>
+        <v>1.033150513305924</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050123094014156</v>
+        <v>1.049624994837343</v>
       </c>
       <c r="J5">
-        <v>1.027969879573882</v>
+        <v>1.027483094840314</v>
       </c>
       <c r="K5">
-        <v>1.038253094880696</v>
+        <v>1.037284717430445</v>
       </c>
       <c r="L5">
-        <v>1.023499517466836</v>
+        <v>1.023097895777105</v>
       </c>
       <c r="M5">
-        <v>1.043313362829209</v>
+        <v>1.042649654408562</v>
       </c>
       <c r="N5">
-        <v>1.012968722748897</v>
+        <v>1.014320933021026</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042852008098293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04232672890052</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021757971794985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009467613971123</v>
+        <v>1.008952753022676</v>
       </c>
       <c r="D6">
-        <v>1.028861909651654</v>
+        <v>1.027865477177329</v>
       </c>
       <c r="E6">
-        <v>1.01396241863458</v>
+        <v>1.013542101154313</v>
       </c>
       <c r="F6">
-        <v>1.033975982416113</v>
+        <v>1.033291970108231</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050178884603624</v>
+        <v>1.049671959963791</v>
       </c>
       <c r="J6">
-        <v>1.028108111471737</v>
+        <v>1.027605690144206</v>
       </c>
       <c r="K6">
-        <v>1.038371554391952</v>
+        <v>1.037386017775947</v>
       </c>
       <c r="L6">
-        <v>1.023637739726131</v>
+        <v>1.023222183072789</v>
       </c>
       <c r="M6">
-        <v>1.043430110675547</v>
+        <v>1.04275348471356</v>
       </c>
       <c r="N6">
-        <v>1.0130163052145</v>
+        <v>1.014354309349013</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042944405884871</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042408903413089</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021780291535223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007957523009002</v>
+        <v>1.007564809649043</v>
       </c>
       <c r="D7">
-        <v>1.027782062615595</v>
+        <v>1.026913705293948</v>
       </c>
       <c r="E7">
-        <v>1.012739612175395</v>
+        <v>1.012427522457222</v>
       </c>
       <c r="F7">
-        <v>1.032910358879332</v>
+        <v>1.032323560141872</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049792573882927</v>
+        <v>1.049350958383702</v>
       </c>
       <c r="J7">
-        <v>1.027153824850499</v>
+        <v>1.02677094591706</v>
       </c>
       <c r="K7">
-        <v>1.037553465291483</v>
+        <v>1.036694908371646</v>
       </c>
       <c r="L7">
-        <v>1.02268372421845</v>
+        <v>1.022375284965547</v>
       </c>
       <c r="M7">
-        <v>1.042624296369136</v>
+        <v>1.04204403741472</v>
       </c>
       <c r="N7">
-        <v>1.012687767538401</v>
+        <v>1.014153763463271</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042306659762937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041847424707614</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021628758072803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00150371770656</v>
+        <v>1.001614371445077</v>
       </c>
       <c r="D8">
-        <v>1.023168637881488</v>
+        <v>1.022833772389393</v>
       </c>
       <c r="E8">
-        <v>1.00752562449153</v>
+        <v>1.007658100097873</v>
       </c>
       <c r="F8">
-        <v>1.028369636591535</v>
+        <v>1.028186913147837</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048109792263419</v>
+        <v>1.047939734119051</v>
       </c>
       <c r="J8">
-        <v>1.023068390051698</v>
+        <v>1.023175847638514</v>
       </c>
       <c r="K8">
-        <v>1.034043660536844</v>
+        <v>1.033713079583853</v>
       </c>
       <c r="L8">
-        <v>1.018604612300525</v>
+        <v>1.018735327225656</v>
       </c>
       <c r="M8">
-        <v>1.039178560558327</v>
+        <v>1.038998145173512</v>
       </c>
       <c r="N8">
-        <v>1.011280003503819</v>
+        <v>1.013229158051299</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039579592569474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039436805692066</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020967087825332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9895513170884713</v>
+        <v>0.9905853901934496</v>
       </c>
       <c r="D9">
-        <v>1.014636147776171</v>
+        <v>1.015280645074339</v>
       </c>
       <c r="E9">
-        <v>0.9979194368262567</v>
+        <v>0.9988629158585216</v>
       </c>
       <c r="F9">
-        <v>1.020017495028933</v>
+        <v>1.02057715490261</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044875512239231</v>
+        <v>1.045202009682228</v>
       </c>
       <c r="J9">
-        <v>1.01547851846745</v>
+        <v>1.016475039734754</v>
       </c>
       <c r="K9">
-        <v>1.027496144385091</v>
+        <v>1.028130575574043</v>
       </c>
       <c r="L9">
-        <v>1.011046360149646</v>
+        <v>1.011974468438384</v>
       </c>
       <c r="M9">
-        <v>1.032793941185289</v>
+        <v>1.033344976387503</v>
       </c>
       <c r="N9">
-        <v>1.008660320636307</v>
+        <v>1.01141222025531</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034526570067888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034962681003689</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.01970314707556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.981238953434266</v>
+        <v>0.9829838670452581</v>
       </c>
       <c r="D10">
-        <v>1.008739451621322</v>
+        <v>1.010112053849881</v>
       </c>
       <c r="E10">
-        <v>0.9912891772459644</v>
+        <v>0.9928558312078448</v>
       </c>
       <c r="F10">
-        <v>1.014332735211251</v>
+        <v>1.015449545929685</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042571155048716</v>
+        <v>1.043265385888998</v>
       </c>
       <c r="J10">
-        <v>1.010217219121688</v>
+        <v>1.011889262293524</v>
       </c>
       <c r="K10">
-        <v>1.022952685276196</v>
+        <v>1.024301101131564</v>
       </c>
       <c r="L10">
-        <v>1.005817509789607</v>
+        <v>1.007355285108186</v>
       </c>
       <c r="M10">
-        <v>1.028447941554107</v>
+        <v>1.029545346548954</v>
       </c>
       <c r="N10">
-        <v>1.006856698314917</v>
+        <v>1.01029255158763</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031138866109589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032007344455307</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018834311712751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9782593045530372</v>
+        <v>0.9802698198791531</v>
       </c>
       <c r="D11">
-        <v>1.006820759866757</v>
+        <v>1.008454726985722</v>
       </c>
       <c r="E11">
-        <v>0.9890285931986792</v>
+        <v>0.9908182535212592</v>
       </c>
       <c r="F11">
-        <v>1.012943405445746</v>
+        <v>1.014261987305587</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041884114052494</v>
+        <v>1.042709989831649</v>
       </c>
       <c r="J11">
-        <v>1.008565349738587</v>
+        <v>1.010487072809849</v>
       </c>
       <c r="K11">
-        <v>1.021615182865016</v>
+        <v>1.02321894166165</v>
       </c>
       <c r="L11">
-        <v>1.004160423188292</v>
+        <v>1.005915426566495</v>
       </c>
       <c r="M11">
-        <v>1.027625287556059</v>
+        <v>1.028919863794465</v>
       </c>
       <c r="N11">
-        <v>1.00641688767656</v>
+        <v>1.010228147335785</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.030927866268755</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031951861095658</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018654920201539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9773928567087093</v>
+        <v>0.9794604738640303</v>
       </c>
       <c r="D12">
-        <v>1.006344193135505</v>
+        <v>1.008036698856349</v>
       </c>
       <c r="E12">
-        <v>0.9884234304591117</v>
+        <v>0.9902530963840642</v>
       </c>
       <c r="F12">
-        <v>1.012821325531432</v>
+        <v>1.014184650700543</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04174662181273</v>
+        <v>1.042601884868944</v>
       </c>
       <c r="J12">
-        <v>1.008185794665166</v>
+        <v>1.010160278698916</v>
       </c>
       <c r="K12">
-        <v>1.021350849448853</v>
+        <v>1.023011531272374</v>
       </c>
       <c r="L12">
-        <v>1.003775831589784</v>
+        <v>1.005569444762983</v>
       </c>
       <c r="M12">
-        <v>1.027706943621928</v>
+        <v>1.029045049034606</v>
       </c>
       <c r="N12">
-        <v>1.00638893548885</v>
+        <v>1.010306692016363</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.031321389650644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032379451993876</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018654011923053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9781048890015299</v>
+        <v>0.9800552077167773</v>
       </c>
       <c r="D13">
-        <v>1.006954629011594</v>
+        <v>1.00854055709688</v>
       </c>
       <c r="E13">
-        <v>0.9890564824544162</v>
+        <v>0.99077277360454</v>
       </c>
       <c r="F13">
-        <v>1.013684442557564</v>
+        <v>1.014963963059418</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04203300871086</v>
+        <v>1.042834472752896</v>
       </c>
       <c r="J13">
-        <v>1.008769560349775</v>
+        <v>1.010632520012889</v>
       </c>
       <c r="K13">
-        <v>1.021906200728959</v>
+        <v>1.023462451782591</v>
       </c>
       <c r="L13">
-        <v>1.004351639711495</v>
+        <v>1.006034277641968</v>
       </c>
       <c r="M13">
-        <v>1.028510913876412</v>
+        <v>1.029766893883813</v>
       </c>
       <c r="N13">
-        <v>1.006678428031922</v>
+        <v>1.010464032967739</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.032235556724574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033228428626072</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018791333338438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9793113438405296</v>
+        <v>0.9811040307262002</v>
       </c>
       <c r="D14">
-        <v>1.007867966850189</v>
+        <v>1.009307528532307</v>
       </c>
       <c r="E14">
-        <v>0.9900539504611967</v>
+        <v>0.9916251916162855</v>
       </c>
       <c r="F14">
-        <v>1.014728446136458</v>
+        <v>1.015893598196409</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042421979758084</v>
+        <v>1.043149613230304</v>
       </c>
       <c r="J14">
-        <v>1.009607786851168</v>
+        <v>1.011321405933569</v>
       </c>
       <c r="K14">
-        <v>1.022659790965826</v>
+        <v>1.024072768980347</v>
       </c>
       <c r="L14">
-        <v>1.005183122938861</v>
+        <v>1.006723970584121</v>
       </c>
       <c r="M14">
-        <v>1.029394461761779</v>
+        <v>1.030538466632521</v>
       </c>
       <c r="N14">
-        <v>1.007021569913195</v>
+        <v>1.010610208711667</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033108228382394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034012459205406</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018949240429348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9799556043723651</v>
+        <v>0.9816719148507228</v>
       </c>
       <c r="D15">
-        <v>1.008335984021781</v>
+        <v>1.009703624496743</v>
       </c>
       <c r="E15">
-        <v>0.9905733768716193</v>
+        <v>0.992076139033785</v>
       </c>
       <c r="F15">
-        <v>1.015214436275383</v>
+        <v>1.0163235488597</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042613582013384</v>
+        <v>1.043304940177394</v>
       </c>
       <c r="J15">
-        <v>1.010030401242865</v>
+        <v>1.011671713848398</v>
       </c>
       <c r="K15">
-        <v>1.023031325870029</v>
+        <v>1.024373911720842</v>
       </c>
       <c r="L15">
-        <v>1.005602352271247</v>
+        <v>1.007076282653319</v>
       </c>
       <c r="M15">
-        <v>1.029784656758653</v>
+        <v>1.030873800252299</v>
       </c>
       <c r="N15">
-        <v>1.007177818106684</v>
+        <v>1.010668837544676</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033454347679594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034315192910264</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019021248032022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9833547711879631</v>
+        <v>0.9847112313610147</v>
       </c>
       <c r="D16">
-        <v>1.010732651389695</v>
+        <v>1.011753307433488</v>
       </c>
       <c r="E16">
-        <v>0.9932631880214308</v>
+        <v>0.9944512654810396</v>
       </c>
       <c r="F16">
-        <v>1.017498084640807</v>
+        <v>1.018338036962385</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043560288912975</v>
+        <v>1.044076573967389</v>
       </c>
       <c r="J16">
-        <v>1.012165768339767</v>
+        <v>1.013466075895632</v>
       </c>
       <c r="K16">
-        <v>1.024874674515129</v>
+        <v>1.025877481892128</v>
       </c>
       <c r="L16">
-        <v>1.007718113487654</v>
+        <v>1.008884457276752</v>
       </c>
       <c r="M16">
-        <v>1.031522661291379</v>
+        <v>1.032348172989018</v>
       </c>
       <c r="N16">
-        <v>1.007890811633129</v>
+        <v>1.010930175203445</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034789168161809</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.035441661247726</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019355714989624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9853293059680986</v>
+        <v>0.9865054538079616</v>
       </c>
       <c r="D17">
-        <v>1.012091789339382</v>
+        <v>1.01293210583191</v>
       </c>
       <c r="E17">
-        <v>0.9948055063724938</v>
+        <v>0.9958393530688452</v>
       </c>
       <c r="F17">
-        <v>1.018697158686952</v>
+        <v>1.019398278003906</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044078483025228</v>
+        <v>1.044503715667465</v>
       </c>
       <c r="J17">
-        <v>1.013363169940024</v>
+        <v>1.014492270161563</v>
       </c>
       <c r="K17">
-        <v>1.025891076115126</v>
+        <v>1.026717125155775</v>
       </c>
       <c r="L17">
-        <v>1.008905231039537</v>
+        <v>1.009920728907656</v>
       </c>
       <c r="M17">
-        <v>1.032385112993322</v>
+        <v>1.033074524177703</v>
       </c>
       <c r="N17">
-        <v>1.008257562476806</v>
+        <v>1.01108417313545</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035341266113342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.035886238764286</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019530340153987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9862479755978438</v>
+        <v>0.9873686513923324</v>
       </c>
       <c r="D18">
-        <v>1.012660103093058</v>
+        <v>1.013438737911815</v>
       </c>
       <c r="E18">
-        <v>0.9954848732973385</v>
+        <v>0.9964768196067183</v>
       </c>
       <c r="F18">
-        <v>1.019021859146809</v>
+        <v>1.019676316653982</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044266143141484</v>
+        <v>1.044660251395622</v>
       </c>
       <c r="J18">
-        <v>1.013840777582329</v>
+        <v>1.014917498097653</v>
       </c>
       <c r="K18">
-        <v>1.026263827238658</v>
+        <v>1.02702946424242</v>
       </c>
       <c r="L18">
-        <v>1.009382001519536</v>
+        <v>1.010356646123972</v>
       </c>
       <c r="M18">
-        <v>1.032520134358325</v>
+        <v>1.033163839929261</v>
       </c>
       <c r="N18">
-        <v>1.008348619221017</v>
+        <v>1.011111906759866</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035209143861118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.035718093773471</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019571837770683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9861864145937758</v>
+        <v>0.9873602862907257</v>
       </c>
       <c r="D19">
-        <v>1.01248809076638</v>
+        <v>1.013310889176731</v>
       </c>
       <c r="E19">
-        <v>0.9953615647638913</v>
+        <v>0.9964092822661509</v>
       </c>
       <c r="F19">
-        <v>1.018527636553515</v>
+        <v>1.019217346082957</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044144793278387</v>
+        <v>1.044561281530543</v>
       </c>
       <c r="J19">
-        <v>1.013643889404092</v>
+        <v>1.014771985039915</v>
       </c>
       <c r="K19">
-        <v>1.026031283324387</v>
+        <v>1.02684041495116</v>
       </c>
       <c r="L19">
-        <v>1.00919587065113</v>
+        <v>1.010225407408442</v>
       </c>
       <c r="M19">
-        <v>1.031971172072424</v>
+        <v>1.032649597457506</v>
       </c>
       <c r="N19">
-        <v>1.008186095268805</v>
+        <v>1.011001563152878</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034447694506451</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.034984273111182</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019485862019946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9834030825880317</v>
+        <v>0.9849272607531813</v>
       </c>
       <c r="D20">
-        <v>1.010274590736292</v>
+        <v>1.011431655255287</v>
       </c>
       <c r="E20">
-        <v>0.9930129491776424</v>
+        <v>0.9943842521653459</v>
       </c>
       <c r="F20">
-        <v>1.015813382425989</v>
+        <v>1.016763219613799</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043177288387255</v>
+        <v>1.04376274523936</v>
       </c>
       <c r="J20">
-        <v>1.011589127199301</v>
+        <v>1.013051835912586</v>
       </c>
       <c r="K20">
-        <v>1.024139148194016</v>
+        <v>1.025276427661385</v>
       </c>
       <c r="L20">
-        <v>1.00717978024942</v>
+        <v>1.008526571749113</v>
       </c>
       <c r="M20">
-        <v>1.029583757204188</v>
+        <v>1.03051757611614</v>
       </c>
       <c r="N20">
-        <v>1.00732775972352</v>
+        <v>1.010504918250655</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032027109704909</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.032766135990482</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019054111937744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9769841289175709</v>
+        <v>0.9792462538524895</v>
       </c>
       <c r="D21">
-        <v>1.005689673435855</v>
+        <v>1.007548414528432</v>
       </c>
       <c r="E21">
-        <v>0.987887243139965</v>
+        <v>0.9899175295869354</v>
       </c>
       <c r="F21">
-        <v>1.011315302234458</v>
+        <v>1.01281275866604</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.0413425176381</v>
+        <v>1.042281901630193</v>
       </c>
       <c r="J21">
-        <v>1.007476679227042</v>
+        <v>1.009638058274445</v>
       </c>
       <c r="K21">
-        <v>1.020564049052661</v>
+        <v>1.022388177278599</v>
       </c>
       <c r="L21">
-        <v>1.003101787438867</v>
+        <v>1.005092468670004</v>
       </c>
       <c r="M21">
-        <v>1.026085427609311</v>
+        <v>1.027555388377297</v>
       </c>
       <c r="N21">
-        <v>1.005894116751388</v>
+        <v>1.01000456283472</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029217166764587</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.030380559769392</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018396570361167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9728870596066993</v>
+        <v>0.9756210695616463</v>
       </c>
       <c r="D22">
-        <v>1.002780074871836</v>
+        <v>1.00508684111232</v>
       </c>
       <c r="E22">
-        <v>0.9846314599811048</v>
+        <v>0.9870824464186069</v>
       </c>
       <c r="F22">
-        <v>1.008495909046016</v>
+        <v>1.010343396886977</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040166853993635</v>
+        <v>1.041331803123869</v>
       </c>
       <c r="J22">
-        <v>1.004865178680356</v>
+        <v>1.007469864459342</v>
       </c>
       <c r="K22">
-        <v>1.01829665838387</v>
+        <v>1.020558195768543</v>
       </c>
       <c r="L22">
-        <v>1.000513644790562</v>
+        <v>1.002914220618822</v>
       </c>
       <c r="M22">
-        <v>1.023900918467663</v>
+        <v>1.025712696636246</v>
       </c>
       <c r="N22">
-        <v>1.004990669170629</v>
+        <v>1.009685596536114</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.027488244450512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.028922170413035</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017981731040369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9750694825294824</v>
+        <v>0.9775318935449578</v>
       </c>
       <c r="D23">
-        <v>1.004329480437758</v>
+        <v>1.00638262087639</v>
       </c>
       <c r="E23">
-        <v>0.9863648431329239</v>
+        <v>0.9885725626656433</v>
       </c>
       <c r="F23">
-        <v>1.009996658286734</v>
+        <v>1.011645087209135</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040794419041712</v>
+        <v>1.04183168930307</v>
       </c>
       <c r="J23">
-        <v>1.006256387072126</v>
+        <v>1.008605959265005</v>
       </c>
       <c r="K23">
-        <v>1.019504819258435</v>
+        <v>1.021518781477459</v>
       </c>
       <c r="L23">
-        <v>1.001892140680245</v>
+        <v>1.004055700518073</v>
       </c>
       <c r="M23">
-        <v>1.02506436104859</v>
+        <v>1.026681777203003</v>
       </c>
       <c r="N23">
-        <v>1.005471989752237</v>
+        <v>1.009809157847301</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.02840904765518</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.029689144865604</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018197810049801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9834354591437691</v>
+        <v>0.9849633583616753</v>
       </c>
       <c r="D24">
-        <v>1.010278544534466</v>
+        <v>1.011438245402069</v>
       </c>
       <c r="E24">
-        <v>0.9930286269503462</v>
+        <v>0.9944043523693815</v>
       </c>
       <c r="F24">
-        <v>1.015772371380563</v>
+        <v>1.016724466776876</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043171011528067</v>
+        <v>1.043757812388814</v>
       </c>
       <c r="J24">
-        <v>1.011586403041229</v>
+        <v>1.013052775739021</v>
       </c>
       <c r="K24">
-        <v>1.024127530156884</v>
+        <v>1.025267426648328</v>
       </c>
       <c r="L24">
-        <v>1.007179283846863</v>
+        <v>1.008530451645077</v>
       </c>
       <c r="M24">
-        <v>1.029528054524522</v>
+        <v>1.030464112543782</v>
       </c>
       <c r="N24">
-        <v>1.007315271335555</v>
+        <v>1.010493973072611</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031941813339628</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.032682649043661</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019045872424532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9927146120855148</v>
+        <v>0.9934858235026351</v>
       </c>
       <c r="D25">
-        <v>1.01689246491162</v>
+        <v>1.017264631373411</v>
       </c>
       <c r="E25">
-        <v>1.000455569300247</v>
+        <v>1.001167781210916</v>
       </c>
       <c r="F25">
-        <v>1.022220762366022</v>
+        <v>1.022572716643811</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045744791817788</v>
+        <v>1.045933447462402</v>
       </c>
       <c r="J25">
-        <v>1.017489670952638</v>
+        <v>1.018234422158787</v>
       </c>
       <c r="K25">
-        <v>1.029234086986259</v>
+        <v>1.029600720130695</v>
       </c>
       <c r="L25">
-        <v>1.013046817256267</v>
+        <v>1.013747995888695</v>
       </c>
       <c r="M25">
-        <v>1.034483651729295</v>
+        <v>1.034830442085153</v>
       </c>
       <c r="N25">
-        <v>1.009354944034663</v>
+        <v>1.011857793443961</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035863872610086</v>
+        <v>1.036138335652346</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020037302341448</v>
       </c>
     </row>
   </sheetData>
